--- a/data/processed/User Evaluations/User Eval - combined heuristic data.xlsx
+++ b/data/processed/User Evaluations/User Eval - combined heuristic data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gemmamcdonald/Desktop/Level-4-Individual-Project/data/processed/User Evaluations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC57E2C4-6359-9D4E-9A89-4F1F25654365}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F982ACDF-F5FA-F346-A471-8DF23721B9A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1678,7 +1678,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
